--- a/Src/deploy/outputs/document_extraction_results.xlsx
+++ b/Src/deploy/outputs/document_extraction_results.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="falcon_r2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="location_position" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="none" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -142,7 +143,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1809750" cy="2857500"/>
+    <ext cx="2857500" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -167,9 +168,464 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="2857500" cy="1038225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="904875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2009775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2314575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2038350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="514350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="733425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="752475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1571625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2609850" cy="923925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2743200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2143125" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="2857500" cy="1009650"/>
     <pic>
       <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="638175"/>
+    <pic>
+      <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -192,7 +648,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="723900"/>
+    <ext cx="2857500" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -217,7 +673,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1219200" cy="2857500"/>
+    <ext cx="2857500" cy="514350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -242,7 +698,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2581275" cy="704850"/>
+    <ext cx="2400300" cy="2238375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -267,7 +723,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1009650" cy="2857500"/>
+    <ext cx="2857500" cy="1771650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -292,7 +748,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2171700" cy="704850"/>
+    <ext cx="2857500" cy="561975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -317,7 +773,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2266950" cy="723900"/>
+    <ext cx="1362075" cy="1028700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -342,7 +798,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="1266825"/>
+    <ext cx="1981200" cy="552450"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -367,7 +823,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="752475"/>
+    <ext cx="2857500" cy="1543050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -392,7 +848,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2781300" cy="809625"/>
+    <ext cx="1038225" cy="2609850"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -417,7 +873,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1133475" cy="2857500"/>
+    <ext cx="1666875" cy="1428750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -442,7 +898,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="2733675"/>
+    <ext cx="2857500" cy="1381125"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -467,7 +923,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1790700" cy="2476500"/>
+    <ext cx="2857500" cy="676275"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -492,7 +948,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1304925" cy="1952625"/>
+    <ext cx="2857500" cy="1495425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -517,7 +973,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="304800" cy="2857500"/>
+    <ext cx="2857500" cy="590550"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -542,7 +998,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1971675" cy="1371600"/>
+    <ext cx="2857500" cy="523875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -567,7 +1023,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1800225" cy="1019175"/>
+    <ext cx="2562225" cy="1409700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -592,7 +1048,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2371725" cy="1466850"/>
+    <ext cx="809625" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -617,7 +1073,7 @@
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1219200" cy="2857500"/>
+    <ext cx="1905000" cy="847725"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -642,7 +1098,7 @@
       <row>21</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="447675"/>
+    <ext cx="1866900" cy="876300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -667,7 +1123,7 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1495425" cy="419100"/>
+    <ext cx="2857500" cy="2314575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -692,7 +1148,7 @@
       <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1790700" cy="447675"/>
+    <ext cx="2857500" cy="657225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -717,7 +1173,7 @@
       <row>24</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2609850" cy="2857500"/>
+    <ext cx="2047875" cy="723900"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -742,7 +1198,7 @@
       <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="1028700"/>
+    <ext cx="2028825" cy="752475"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -767,7 +1223,7 @@
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="1181100"/>
+    <ext cx="2857500" cy="533400"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -792,7 +1248,7 @@
       <row>27</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="619125"/>
+    <ext cx="2857500" cy="2038350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -817,7 +1273,7 @@
       <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="923925" cy="2676525"/>
+    <ext cx="1981200" cy="790575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -842,7 +1298,7 @@
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="600075"/>
+    <ext cx="2857500" cy="1714500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -850,6 +1306,756 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="723900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="781050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1647825" cy="714375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1200150" cy="1609725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1571625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1752600" cy="771525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1914525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="609600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2762250" cy="1171575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2343150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="542925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1819275" cy="771525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1666875" cy="866775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2371725" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2124075" cy="657225"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1962150" cy="800100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="695325" cy="2314575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="628650" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="676275" cy="2305050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="752475" cy="2409825"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2743200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="742950" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2486025" cy="600075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1971675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1162050" cy="1276350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1685925" cy="1990725"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2819400" cy="2009775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1152,7 +2358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,8 +2368,8 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1184,7 +2390,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Falcon 4 Extraction</t>
+          <t>Extracted Text</t>
         </is>
       </c>
     </row>
@@ -1197,35 +2403,57 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7
+          <t>ede
+7 ANVId LNSW4IdNSV IW
+7 ANAddSS AW
+62
+Z ANVId LNAWSaNSV AW
+C INAJYdSSIW
+Vid LN4W4IdNSV AW
+€ IJNIJGSSSIW | ——
+7
+ot Hie
+— on
+&gt;
+~ =| [7],
+L| INWid INAHBENSY
+fe | INIGISSIW
+Qh | ik
+Ak Tt
+np ee
+pss ‘ NOAARARARZARW 2
+Ct ip c=
+TUK 5
+TI. IP Sc
+\ a |
+2 SS ae
+to ij== | A
+NX Lu
+FZ TS HS
+x cu aa
+4 = [|
+ae ‘J
+: ae
+= DS —— &gt;is
+Lo)
+=
+Cc)
+S an)
+&gt; |
+Oe ae
+—&gt;
+‘)
+LN4AWSaNSV AW
+G4AQ U4dSVAW
+JAdIIS NO SUNSVAW
+TV-LV ALAN dSSAW
+d48 sf] NASS4W49
+N4SHINd ANV SSVW
+\Of #5-6°62
+nY-LV_SLNIOd
 |
-[l.2r0. | —_
-|
-a a ee ee ee
-a 2
-SL)
-= Th
-S Al
-S , ft
-x Tf Hh
-q po as
-— ae / aT
-— 3. 1940.2 ai
-=
-=
-Py
-|
-/
-I Ss
-Fé
-a og a i
-Ly
-|
-J
-tt
-ASUREMENT AREA FOR
-SECTION E-E
-SY</t>
+KIINKC TOT AFEFL] AEC HE
+BEZOGEN AUF</t>
         </is>
       </c>
     </row>
@@ -1237,14 +2465,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>none: 3.19+0.2</t>
-        </is>
-      </c>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4" ht="150" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -1254,29 +2478,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>none: AREA FOR</t>
-        </is>
-      </c>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5" ht="150" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>none: 0855</t>
+          <t>INNENKONTUR (MASSE BEZOGEN AUF MESSEBENE 2)
+INNER CONTOUR (OIMENSTONS REFERS TO MEASUREMENT PLANE 2)
+Abe p RBC ra] [es _—
+ee SA tooo Lod.
+ee
+YO?
+&gt; imran
+ie
+%
+2: O° O.e
+OIPPODR
+NT
+=
+ANY \/7
+VFaVaeVaVavaVatavavatavavatavavtavla VavaraVvat, Qeee Va aVaV, a RR
+SLR 054°0 -0°0"0°0"4
+56 RRR
+ee Se KX a ee ROY
+Renee, were eee. nae = EBY LY</t>
         </is>
       </c>
     </row>
@@ -1288,12 +2522,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: location_position</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>none: ASUREMENT</t>
+          <t>la 0.5 ID H B-C |</t>
         </is>
       </c>
     </row>
@@ -1304,7 +2538,14 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>oe SEZ. Ze ve ee CDSS AIOE es Say,
+ox. &lt;a fT, | CT
+oo any PAY ce
+74 47 |</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="150" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -1314,68 +2555,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>location_position</t>
+          <t>R2: falcon_r2 | R3: location_position</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>location_position: (0.64)</t>
+          <t>a (0.25 ID |</t>
         </is>
       </c>
     </row>
     <row r="9" ht="150" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>none: (0.64)</t>
+          <t>NACH MIC (PFERCHKREIS)
+LAI — TM | NTT fr itfye- | TY.
+D6 .8+0.08
+6 [40.20
+NACH MIC (PFERCHKRE!S)
+ACC. TO MIC (MAX. INSCRIBED CIRCLE
+27.6
+1,525+0.2
+—
+—&lt;— — ——— +4
+-“{ NT
+7 at ~
+= :
+NES TKENNZE IC ANUNG
+TASCHE 0.2 mm TIEF, SCHRIFT 0.2 mm ERI
+CAVITY INDICATION
+POCKET 0.2 mm DEEP, TEXT 0.2 mm RAISE</t>
         </is>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Parent Image</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TERMINALS TERMINAL2
-TERMINAL
-TERMINALS
-oc
-DETAIL B
-SCREWING SURFACE
-(7.95)
-98. 21/+0.19
-4+ 0. |
-2. 5640.2.</t>
+          <t>YN [0.6 |D fH [B-C</t>
         </is>
       </c>
     </row>
     <row r="11" ht="150" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>none: ‘DETAIL B</t>
+          <t>INNENKONTUR (MASSE BEZOGEN AUF MESSEBENE 1)
+INNER CONTOUR (DIMENSIONS REFERS TO MEASUREMENT PLANE. 1)
+Pq |0.5 [DH BC
+YTS ANTS SILK 4
+IZED OY =U,</t>
         </is>
       </c>
     </row>
@@ -1387,46 +2635,563 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: location_position</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>none: TERMINAL 2</t>
+          <t>(~ {0.5 |D HH [BC</t>
         </is>
       </c>
     </row>
     <row r="13" ht="150" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>none: |e 079621</t>
+          <t>REFERES TO
+PLASTIC SURFACE
+Y
+COFRNEREUNKT ALS
+I| &lt;t MM GUT TEILKENNZEICHNUNG MAX. Q1.0 mm
+| [ “AOD PART INDICATION MAX. 1.0 mm
+a MC \ Al ft —
+C t ||| I]S
+Ni Bia
+t
+PABB-GE 5:
+Po
+v4
+XS
+(&gt;
+ANSPRIT ZPUNKT
+MAX. ZUL. UEBERSTAND Q.3 mm
+INJEC TION POINT
+MAX. ALLOWED PROTRUSION 0.3 mm
+GUELTIG FUER BEIDE T-STEGE
+TINE FOR BOTH- BARS</t>
         </is>
       </c>
     </row>
     <row r="14" ht="150" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15" ht="150" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16" ht="150" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>oe By
+F; ESSEC ERIN RXXK
+aS
+4i
+ie
+aw
+ie
+SSNS TRS
+LI ——
+Y,
+f
+aT le
+ee ee ee ee ee
+a
+ii:
+x OO
+——S—==
+i .—)
+Xx
+REFERS TQ MEASUREMENT PLANE 1
+POSITION SENSOR UND SENSORTASCHE
+POSITION SENSOR AND SENSOR POCKET
+4H L
+_ aN
+=~ aan
+LS Sons BE A ax ae, ae a il &lt;i Se AN
+e@)
+|| .
+ar
+WV) Ih UNTERSEITE SENSOR LEADFRAME
+vil (20.2240, wa BOTTOM SENSOR LEADFRAME
+2/9 |
+G4 Ce
+PRE
+s AA
+JOCAUMSPRITZ
+YOKE OVERMOL
+133.6 |
+te</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="150" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18" ht="150" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ay 340.05 S
+um
+&amp;
+a)
++H
+On
+N
+&gt;&lt;
+~t</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="150" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: location_position</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ede
+7 ANVId LNSW4IdNSV IW
+7 ANAddSS AW
+62
+Z ANVId LNAWSaNSV AW
+C INAJYdSSIW
+Vid LN4W4IdNSV AW
+€ IJNIJGSSSIW | ——
+7
+ot Hie
+— on
+&gt;
+~ =| [7],
+L| INWid INAHBENSY
+fe | INIGISSIW
+Qh | ik
+Ak Tt
+np ee
+pss ‘ NOAARARARZARW 2
+Ct ip c=
+TUK 5
+TI. IP Sc
+\ a |
+2 SS ae
+to ij== | A
+NX Lu
+FZ TS HS
+x cu aa
+4 = [|
+ae ‘J
+: ae
+= DS —— &gt;is
+Lo)
+=
+Cc)
+S an)
+&gt; |
+Oe ae
+—&gt;
+‘)
+LN4AWSaNSV AW
+G4AQ U4dSVAW
+JAdIIS NO SUNSVAW
+TV-LV ALAN dSSAW
+d48 sf] NASS4W49
+N4SHINd ANV SSVW
+\Of #5-6°62
+nY-LV_SLNIOd
+|
+KIINKC TOT AFEFL] AEC HE
+BEZOGEN AUF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BEZOGEN A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INNENKONTUR (MASSE BEZOGEN AUF MESSEBENE 2)
+INNER CONTOUR (OIMENSTONS REFERS TO MEASUREMENT PLANE 2)
+Abe p RBC ra] [es _—
+ee SA tooo Lod.
+ee
+YO?
+&gt; imran
+ie
+%
+2: O° O.e
+OIPPODR
+NT
+=
+ANY \/7
+VFaVaeVaVavaVatavavatavavatavavtavla VavaraVvat, Qeee Va aVaV, a RR
+SLR 054°0 -0°0"0°0"4
+56 RRR
+ee Se KX a ee ROY
+Renee, were eee. nae = EBY LY</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CY [0.4 |D |H [B-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7" ht="150" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>oe SEZ. Ze ve ee CDSS AIOE es Say,
+ox. &lt;a fT, | CT
+oo any PAY ce
+74 47 |</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="150" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9" ht="150" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10" ht="150" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>124 67 |</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="150" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>T-STEGE AUSSEN MIT ANSCHLUSSKONTUR
+T-OUTER BARS WITH CONNECTING CONTOUR
+24 440.15
+KX XK KR DR A! XR KR XK RK HX
+SOS XT NSIS NS oY
+OP PSS NOK O55 05 TX RESO @ .
+SRR KOCK RY &gt;&lt; PRD
+DGS. GD GD GD. an ab tn an an ap. SK
+ees)
+ZS
+0
+rates
+£06
+CS
+\/
+IW,
+LOK
+5%"
+OSI SED
+— TTT
+= po
+a
+AKA KK XK BAD
+SN
+CAN\\
+WS LHX \ oem van
+» a Ae a Wa SF,
+Tih AAS 77
+n~
+Qe
+/
+4
+4
+4
+KY
+a,’
+o
+x
+or
+»
+o.
+ty
+b
+L
+TR
+xxx
+.
+A,
+ff
+K
+LA
+UK
+DRBR
+D
+x
+| — |
+@
+‘4X PRO T-STEE
+PER T-Bap)
+FNTFORMSCHRAEGE MAX. 1 Z|
+F JECTION CHAMFER MAX. 1°
+/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="150" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sb 0F6'° S|</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="150" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&amp;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="150" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Parent Image</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IC CEN
-A 2 SENSOR otatet
-MEASURE THE LOCATION OF SENSOR O}
-A
-DETAIL VG4:1)</t>
+          <t>STANZGITTER FREI VON FEI
+STAMPED GRID FREE OF FA
+TASCHE 0.2 mm TIEF,
+SCHRIFT 0.2 mm ERHABEN
+SCHRIFTHOEHE 2.5 mm
+POCKET O.2 mm DEEP,
+TEXT 0.2 mm RAISED
+TEXT HEIGHT 2.5 mm
+BEREICH FUE
+AREA FOR &amp;
+a
+|
+|
+yy) MATERIALKENNZEICHNUNG NACH VDA260
+F} TASCHE 0.2 mm TIEF, SCARIFT 0.2 mm ERHABEN
+SCHRIFTHOEHE 1.5 mm
+MATERIAL INDICATION
+DATUMSKENNZEICHNUNG POCKET 0.2 mm DEER, TEX! 0.2 mm RAISED
+TASCHE 0.2 mm TIEF, SCHRIFT O.2 mm ERHABEN TEXT HEIGHT 1.5 mm
+DATE INDICATION
+POCKET 0.2 mm DEEP, TEXT 0.2 mm RAISED
+RZmax 20 Ramax 1.6
+? 025 +40.075 |
+v,
+a
+EN</t>
         </is>
       </c>
     </row>
@@ -1438,29 +3203,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">none: </t>
+          <t>2 .QO25+0.075</t>
         </is>
       </c>
     </row>
     <row r="16" ht="150" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>none: (0 &gt;</t>
+          <t>UEBERSPRITZUNG ZULAESSIG ar NN [bpee
+OVERMOLO ING ALLOWED .
+0.25 / Rzmax 17 0.4 |G |H [B-C | 2x
+a a ——
+C Cll
+Ir a | ee eee
+mip ral IT Fan:
+SST ASCHE | ;
+POC KE |
+AS 40.1 ‘ K Ly
+35,240.15 /\
+a
+UMSPRITZUNG NICHT ZULAESSIG
+UMSPRITZUNG ZU HUELSE VERTIEFT
+OVERMOLOING NOT ALLOWED
+XKKX
+ox
+2</t>
         </is>
       </c>
     </row>
@@ -1472,12 +3250,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>none: INVISNOY) | O+¢</t>
+          <t>- 10.4 |G |H [B-C</t>
         </is>
       </c>
     </row>
@@ -1489,12 +3267,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">none: </t>
+          <t>© [0.4 [cf B-C]2</t>
         </is>
       </c>
     </row>
@@ -1506,14 +3284,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">none: </t>
-        </is>
-      </c>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20" ht="150" customHeight="1">
       <c r="A20" t="inlineStr">
@@ -1523,57 +3297,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">none: </t>
+          <t>\i0 OFZ SE</t>
         </is>
       </c>
     </row>
     <row r="21" ht="150" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Parent Image</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PRESS TOL
-DIN 6930 #3
-DIMENS TON] TOLERANCE
-OVER ~
-TO [LENGTH|
-| ~
-6)+0.|
-60 ~ 400
-ANGLE DIMENSION
-i~ 6
-6~ 10
-0~ 25
-25 ~ 63
-PLASTIC TOL
-DIN 16901-TOL GR 130
-DIMENS1ON] TOLERANCE
-OVER ~~ TO| WG | NWG
-o~ | |40.08|+0. 18
-|~ 3 |+0.09|4+0. 19
-3~ 6 [+0.10/+0.20
-6~ 10 (+0. 1i[+0 21
-0 ~ 15 [40.13/40.23
-io ~ 22 [40.1540 20 Ty
-22 ~ 30 [40.17] +0.27
-30 ~ 40 [+0.20/+0. 30
-40 ~~ 53 [+0 24/40. 34
-53 ~~ 10 [+0. 28/40. 38
-10 ~ 90 [+0. 34/40. a4
-90 ~ 120 |+0.41]4+0.51
-20 ~ 160 |+0.50|+0. 60
-60 ~ 200 |+0.60|+0. 10</t>
-        </is>
-      </c>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22" ht="150" customHeight="1">
       <c r="A22" t="inlineStr">
@@ -1583,29 +3327,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>none: 160 ~ 200 +0.60[40. 19</t>
-        </is>
-      </c>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23" ht="150" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>none: 0.40.51</t>
+          <t>NACH MIC (PFERCHKREIS)
+LAI — TM | NTT fr itfye- | TY.
+D6 .8+0.08
+6 [40.20
+NACH MIC (PFERCHKRE!S)
+ACC. TO MIC (MAX. INSCRIBED CIRCLE
+27.6
+1,525+0.2
+—
+—&lt;— — ——— +4
+-“{ NT
+7 at ~
+= :
+NES TKENNZE IC ANUNG
+TASCHE 0.2 mm TIEF, SCHRIFT 0.2 mm ERI
+CAVITY INDICATION
+POCKET 0.2 mm DEEP, TEXT 0.2 mm RAISE</t>
         </is>
       </c>
     </row>
@@ -1617,39 +3369,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>none: +0. 25] +0.)</t>
+          <t>[0.6 |D |E-F</t>
         </is>
       </c>
     </row>
     <row r="25" ht="150" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Parent Image</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>c .
-VN FALL
-wy)
-ay
-Q=
-we
-~
-OQ
-16
-Cr’ }|0,
-)
-4:
-DETAIL We</t>
-        </is>
-      </c>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26" ht="150" customHeight="1">
       <c r="A26" t="inlineStr">
@@ -1659,54 +3399,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>location_position</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>location_position: a 0.16)</t>
+          <t>6.9)</t>
         </is>
       </c>
     </row>
     <row r="27" ht="150" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Parent Image</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.440.
-**¥ 7] 2+0.
-GEESE
-_ (0.64) Top s=
-[Olu 2g
-oll |e
-Y
-A
-F
-***¥TOTAL INSPECTION
-(TAPS POSITION SHOULD BE CHECKED)
-¥¥22.440. | (REFER TO 8200 174 926 IN DETAIL)
-NeETAT! Rea-t)</t>
+          <t>© |GO.2M) [A |H B-C
+TT. 07 O77 ON ZA 1417</t>
         </is>
       </c>
     </row>
     <row r="28" ht="150" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>none: 9- (0.64) Top</t>
+          <t>INNENKONTUR (MASSE BEZOGEN AUF MESSEBENE 1)
+INNER CONTOUR (DIMENSIONS REFERS TO MEASUREMENT PLANE. 1)
+Pq |0.5 [DH BC
+YTS ANTS SILK 4
+IZED OY =U,</t>
         </is>
       </c>
     </row>
@@ -1718,29 +3451,568 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>R2: falcon_r2 | R3: none</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>none: “QO+¢2 1 **</t>
+          <t>44.95 |</t>
         </is>
       </c>
     </row>
     <row r="30" ht="150" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sub-crop</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>none: © |0.3@ |M\n</t>
+          <t>REFERES TO
+PLASTIC SURFACE
+Y
+COFRNEREUNKT ALS
+I| &lt;t MM GUT TEILKENNZEICHNUNG MAX. Q1.0 mm
+| [ “AOD PART INDICATION MAX. 1.0 mm
+a MC \ Al ft —
+C t ||| I]S
+Ni Bia
+t
+PABB-GE 5:
+Po
+v4
+XS
+(&gt;
+ANSPRIT ZPUNKT
+MAX. ZUL. UEBERSTAND Q.3 mm
+INJEC TION POINT
+MAX. ALLOWED PROTRUSION 0.3 mm
+GUELTIG FUER BEIDE T-STEGE
+TINE FOR BOTH- BARS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="150" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32" ht="150" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33" ht="150" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(|0.4 |G [E-F
+\IT= Tan oe le</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="150" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35" ht="150" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36" ht="150" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>oe By
+F; ESSEC ERIN RXXK
+aS
+4i
+ie
+aw
+ie
+SSNS TRS
+LI ——
+Y,
+f
+aT le
+ee ee ee ee ee
+a
+ii:
+x OO
+——S—==
+i .—)
+Xx
+REFERS TQ MEASUREMENT PLANE 1
+POSITION SENSOR UND SENSORTASCHE
+POSITION SENSOR AND SENSOR POCKET
+4H L
+_ aN
+=~ aan
+LS Sons BE A ax ae, ae a il &lt;i Se AN
+e@)
+|| .
+ar
+WV) Ih UNTERSEITE SENSOR LEADFRAME
+vil (20.2240, wa BOTTOM SENSOR LEADFRAME
+2/9 |
+G4 Ce
+PRE
+s AA
+JOCAUMSPRITZ
+YOKE OVERMOL
+133.6 |
+te</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="150" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38" ht="150" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.75 [ABC |</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="150" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Si JOCAHUMSPRITZUNG
+YOKE OVERMOLD ING T
+UEBERSPRITZUNG NICHT ZULAESSI6
+OVERMOLDING NOT ALLOWED</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="150" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TD |0.3 1G JH |B-c</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="150" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AH B-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="150" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AUSSPARUNG SPULENKONTAKTE
+RECESS COIL CONTACTS
+2x
+2%
+2X 4.1 2X 4.7 a
+2X eal
+a Te es
+O————— $=
+—a OT
+if [Lg
+at</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="150" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>YD {0.3 Jo | [B-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="150" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>|B [0.15 |G |H [B-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="150" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>111.85 |</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="150" customHeight="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47" ht="150" customHeight="1">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.4540.1
+340.1
+————
+VERGUSSTASCHE
+CAST POCKET
+8 , yt a at isi
+\ 0 —_\_AA
+5 SSS SS ae'8
++S rOFQ' EC
+oD
+o4
+tS
+ENTS
+;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="150" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.45 40.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="150" customHeight="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2 he9 8 |</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="150" customHeight="1">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>OFY EC</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="150" customHeight="1">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S0° OF 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="150" customHeight="1">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LOFOR TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="150" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>c0°0F6 LL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="150" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ay 340.05 S
+um
+&amp;
+a)
++H
+On
+N
+&gt;&lt;
+~t</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="150" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>cO'OFH' SY XY</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="150" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ax 140.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="150" customHeight="1">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Parent Image</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58" ht="150" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59" ht="150" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60" ht="150" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sub-crop</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>R2: falcon_r2 | R3: none</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>xs ue</t>
         </is>
       </c>
     </row>
